--- a/Laboratorio_Dia1_IsabelLopezGarcia.xlsx
+++ b/Laboratorio_Dia1_IsabelLopezGarcia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/isabel_lopez_garcia_es_ey_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{D47DA499-1D92-4DD1-AA4D-23F2E3F896E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C918FEB4-6B5D-44AA-94C6-FA509D78A357}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{D47DA499-1D92-4DD1-AA4D-23F2E3F896E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEEF3C07-34F2-49E7-9ABF-036BE5E94541}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{F93EA3BB-3F39-4611-89CA-93A1BDD0BA12}"/>
   </bookViews>
@@ -443,9 +443,6 @@
     <t>LISTA DE EMPLEADOS</t>
   </si>
   <si>
-    <t>ATAJ</t>
-  </si>
-  <si>
     <t>RETOS</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Ctrl + Flecha abajo</t>
+  </si>
+  <si>
+    <t>78988854B</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -622,7 +622,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -640,7 +640,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -649,7 +649,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -679,16 +679,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,12 +1792,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -1809,8 +1806,8 @@
     <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="35"/>
@@ -1820,22 +1817,22 @@
       <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2116,12 +2113,12 @@
         <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
@@ -2131,15 +2128,18 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
